--- a/backend/Invoice Template.xlsx
+++ b/backend/Invoice Template.xlsx
@@ -10,8 +10,8 @@
     <sheet name="Invoice" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="__xlnm.Print_Area" localSheetId="0">Invoice!$C$3:$G$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Invoice!$B$1:$G$40</definedName>
+    <definedName name="__xlnm.Print_Area" localSheetId="0">Invoice!$C$3:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Invoice!$B$1:$G$43</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -21,13 +21,18 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
       <t xml:space="preserve">SINGFILM SOLUTIONS PTE. LTD.                                                                                      </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>(UEN</t>
@@ -44,7 +49,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t xml:space="preserve"> 202450372H)</t>
@@ -76,10 +80,16 @@
     <t>TO:</t>
   </si>
   <si>
-    <t>WALLPAPER INSTALLERS PTE LTD</t>
+    <t>Company Name</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
       <t>Attn</t>
     </r>
     <r>
@@ -96,7 +106,7 @@
     <t>Tel:</t>
   </si>
   <si>
-    <t>+65 8269 0818</t>
+    <t>tel-number</t>
   </si>
   <si>
     <t>Item</t>
@@ -127,6 +137,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
       <t>Bank Name &amp; address</t>
     </r>
     <r>
@@ -169,7 +185,67 @@
     <numFmt numFmtId="180" formatCode="_-&quot;$&quot;* #,##0.00_ ;_-&quot;$&quot;* \-#,##0.00\ ;_-&quot;$&quot;* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="181" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="42">
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="11"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="18"/>
+      <color indexed="11"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="11"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -179,64 +255,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color indexed="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="18"/>
-      <color indexed="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="24"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
       <i/>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -245,14 +267,12 @@
       <sz val="9"/>
       <color indexed="10"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -260,14 +280,12 @@
       <sz val="11"/>
       <color rgb="FF666666"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -275,7 +293,6 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -283,7 +300,6 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -292,7 +308,6 @@
       <sz val="22"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -300,7 +315,6 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -450,7 +464,6 @@
     <font>
       <sz val="11"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -671,7 +684,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -682,6 +695,118 @@
     <border>
       <left style="thin">
         <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
       </left>
       <right style="hair">
         <color indexed="8"/>
@@ -695,19 +820,6 @@
     <border>
       <left style="hair">
         <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
@@ -715,9 +827,44 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color auto="1"/>
-      </bottom>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -727,10 +874,52 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color auto="1"/>
-      </top>
+      </right>
+      <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -843,70 +1032,70 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -937,47 +1126,71 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -986,13 +1199,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1001,46 +1214,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1052,7 +1289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1487,10 +1724,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:K43"/>
+  <dimension ref="B1:K46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="60" showRuler="0" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" customHeight="1"/>
@@ -1525,7 +1762,7 @@
       <c r="F2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="31" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1536,7 +1773,7 @@
       <c r="F3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="31">
         <v>25001</v>
       </c>
     </row>
@@ -1547,7 +1784,7 @@
       <c r="F4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="31" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1555,10 +1792,10 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1591,8 +1828,8 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
     </row>
     <row r="10" ht="15" customHeight="1" spans="2:9">
       <c r="B10" s="9" t="s">
@@ -1600,10 +1837,10 @@
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="I10" s="52"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="I10" s="66"/>
     </row>
     <row r="11" ht="15" customHeight="1" spans="2:7">
       <c r="B11" s="7" t="s">
@@ -1613,27 +1850,27 @@
         <v>12</v>
       </c>
       <c r="D11" s="7"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
     </row>
     <row r="12" ht="16.25" customHeight="1" spans="2:7">
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
     </row>
     <row r="13" customHeight="1" spans="2:9">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
     </row>
     <row r="14" ht="25" customHeight="1" spans="2:9">
       <c r="B14" s="11" t="s">
@@ -1646,297 +1883,312 @@
       <c r="E14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="34" t="s">
+      <c r="G14" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="2:9">
-      <c r="B15" s="13">
-        <v>1</v>
-      </c>
+      <c r="B15" s="13"/>
       <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="35">
-        <v>1</v>
-      </c>
-      <c r="F15" s="36">
-        <v>22</v>
-      </c>
-      <c r="G15" s="37">
-        <v>1</v>
-      </c>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
     </row>
     <row r="16" ht="15" customHeight="1" spans="2:9">
       <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
     </row>
     <row r="17" ht="15" customHeight="1" spans="2:7">
       <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="49"/>
     </row>
     <row r="18" ht="15" customHeight="1" spans="2:7">
       <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="37"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="49"/>
     </row>
     <row r="19" ht="15" customHeight="1" spans="2:7">
       <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="37"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="49"/>
     </row>
     <row r="20" ht="15" customHeight="1" spans="2:7">
       <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="50"/>
     </row>
     <row r="21" ht="15" customHeight="1" spans="2:9">
       <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
     </row>
     <row r="22" ht="15" customHeight="1" spans="2:7">
       <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="37"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="51"/>
     </row>
     <row r="23" ht="15" customHeight="1" spans="2:7">
       <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="37"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="51"/>
     </row>
     <row r="24" ht="15" customHeight="1" spans="2:7">
       <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="37"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="51"/>
     </row>
     <row r="25" ht="15" customHeight="1" spans="2:9">
       <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
     </row>
     <row r="26" ht="15" customHeight="1" spans="2:7">
       <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="37"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="51"/>
     </row>
     <row r="27" ht="15" customHeight="1" spans="2:7">
       <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="37"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="51"/>
     </row>
     <row r="28" ht="15" customHeight="1" spans="2:7">
       <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="37"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="51"/>
     </row>
     <row r="29" ht="15" customHeight="1" spans="2:7">
       <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="40"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="51"/>
     </row>
     <row r="30" ht="15" customHeight="1" spans="2:9">
       <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
     </row>
     <row r="31" ht="15" customHeight="1" spans="2:7">
       <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="37"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="51"/>
     </row>
     <row r="32" ht="15" customHeight="1" spans="2:7">
       <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="37"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="51"/>
     </row>
     <row r="33" ht="15" customHeight="1" spans="2:7">
       <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="37"/>
-    </row>
-    <row r="34" ht="20" customHeight="1" spans="4:7">
-      <c r="D34" s="15"/>
-      <c r="F34" s="41" t="s">
+      <c r="C33" s="18"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="51"/>
+    </row>
+    <row r="34" ht="15" customHeight="1" spans="2:7">
+      <c r="B34" s="13"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="51"/>
+    </row>
+    <row r="35" ht="15" customHeight="1" spans="2:7">
+      <c r="B35" s="13"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="51"/>
+    </row>
+    <row r="36" ht="15" customHeight="1" spans="2:7">
+      <c r="B36" s="20"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="54"/>
+    </row>
+    <row r="37" ht="20" customHeight="1" spans="4:7">
+      <c r="D37" s="23"/>
+      <c r="F37" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="42">
-        <f>SUM(G15:G33)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" ht="16.8" spans="2:7">
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="44"/>
-    </row>
-    <row r="36" ht="16.8" spans="2:7">
-      <c r="B36" s="17" t="s">
+      <c r="G37" s="56">
+        <f>SUM(G15:G36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" ht="16.8" spans="2:7">
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="58"/>
+    </row>
+    <row r="39" ht="16.8" spans="2:7">
+      <c r="B39" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-    </row>
-    <row r="37" ht="16.8" spans="2:7">
-      <c r="B37" s="19" t="s">
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+    </row>
+    <row r="40" ht="16.8" spans="2:7">
+      <c r="B40" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-    </row>
-    <row r="38" customHeight="1" spans="2:11">
-      <c r="B38" s="21" t="s">
+      <c r="C40" s="27"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+    </row>
+    <row r="41" customHeight="1" spans="2:11">
+      <c r="B41" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="47" t="s">
+      <c r="C41" s="29"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="G38" s="47"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-    </row>
-    <row r="39" ht="16.8" spans="2:11">
-      <c r="B39" s="21" t="s">
+      <c r="G41" s="61"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+    </row>
+    <row r="42" ht="16.8" spans="2:11">
+      <c r="B42" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-    </row>
-    <row r="40" ht="16.8" spans="2:7">
-      <c r="B40" s="21" t="s">
+      <c r="C42" s="29"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+    </row>
+    <row r="43" ht="16.8" spans="2:7">
+      <c r="B43" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-    </row>
-    <row r="41" ht="16.8" spans="2:7">
-      <c r="B41" s="21" t="s">
+      <c r="C43" s="29"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
+    </row>
+    <row r="44" ht="16.8" spans="2:7">
+      <c r="B44" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="50" t="s">
+      <c r="C44" s="29"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="G41" s="50"/>
-    </row>
-    <row r="42" ht="16.8" spans="2:7">
-      <c r="B42" s="21" t="s">
+      <c r="G44" s="64"/>
+    </row>
+    <row r="45" ht="16.8" spans="2:7">
+      <c r="B45" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="51" t="s">
+      <c r="C45" s="29"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="51"/>
-    </row>
-    <row r="43" ht="15.2" spans="5:5">
-      <c r="E43" s="7"/>
+      <c r="G45" s="65"/>
+    </row>
+    <row r="46" ht="15.2" spans="5:5">
+      <c r="E46" s="7"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="37">
+  <mergeCells count="39">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
@@ -1954,19 +2206,22 @@
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="F45:G45"/>
     <mergeCell ref="F11:G12"/>
-    <mergeCell ref="F39:G40"/>
+    <mergeCell ref="F42:G43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.511805555555556" footer="0.511805555555556"/>

--- a/backend/Invoice Template.xlsx
+++ b/backend/Invoice Template.xlsx
@@ -109,7 +109,7 @@
     <t>tel-number</t>
   </si>
   <si>
-    <t>Item</t>
+    <t>ITEM</t>
   </si>
   <si>
     <t>DESCRIPTION</t>
@@ -243,14 +243,12 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -1727,7 +1725,7 @@
   <dimension ref="B1:K46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="60" showRuler="0" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" customHeight="1"/>

--- a/backend/Invoice Template.xlsx
+++ b/backend/Invoice Template.xlsx
@@ -121,7 +121,7 @@
     <t>UNIT PRICE</t>
   </si>
   <si>
-    <t>SUBTOTAL</t>
+    <t>SUBTOTAL (SGD)</t>
   </si>
   <si>
     <t>Total</t>
@@ -1724,8 +1724,8 @@
   </sheetPr>
   <dimension ref="B1:K46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="60" showRuler="0" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="60" showRuler="0" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" customHeight="1"/>

--- a/backend/Invoice Template.xlsx
+++ b/backend/Invoice Template.xlsx
@@ -118,7 +118,7 @@
     <t>QTY</t>
   </si>
   <si>
-    <t>UNIT PRICE</t>
+    <t>UNIT PRICE (SGD)</t>
   </si>
   <si>
     <t>SUBTOTAL (SGD)</t>
@@ -185,7 +185,7 @@
     <numFmt numFmtId="180" formatCode="_-&quot;$&quot;* #,##0.00_ ;_-&quot;$&quot;* \-#,##0.00\ ;_-&quot;$&quot;* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="181" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="40">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -235,19 +235,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <charset val="0"/>
     </font>
@@ -1030,68 +1017,68 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
@@ -1124,71 +1111,71 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1197,13 +1184,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1212,54 +1199,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1269,13 +1256,13 @@
     <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1287,7 +1274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1724,8 +1711,8 @@
   </sheetPr>
   <dimension ref="B1:K46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="60" showRuler="0" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="60" showRuler="0" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" customHeight="1"/>

--- a/backend/Invoice Template.xlsx
+++ b/backend/Invoice Template.xlsx
@@ -118,10 +118,10 @@
     <t>QTY</t>
   </si>
   <si>
-    <t>UNIT PRICE (SGD)</t>
-  </si>
-  <si>
-    <t>SUBTOTAL (SGD)</t>
+    <t xml:space="preserve">UNIT PRICE </t>
+  </si>
+  <si>
+    <t>SUBTOTAL</t>
   </si>
   <si>
     <t>Total</t>
@@ -1711,7 +1711,7 @@
   </sheetPr>
   <dimension ref="B1:K46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="60" showRuler="0" topLeftCell="A14" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="60" showRuler="0" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>

--- a/backend/Invoice Template.xlsx
+++ b/backend/Invoice Template.xlsx
@@ -1711,8 +1711,8 @@
   </sheetPr>
   <dimension ref="B1:K46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="60" showRuler="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="60" showRuler="0" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" customHeight="1"/>
